--- a/web/templates/attestation.xlsx
+++ b/web/templates/attestation.xlsx
@@ -1,5 +1,861 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\education\art\projects\arina\web\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="24270" yWindow="0" windowWidth="22110" windowHeight="9780"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$21</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Середній бал</t>
+  </si>
+  <si>
+    <t>Пропуски</t>
+  </si>
+  <si>
+    <t>Поведінка</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>З неповажної причини</t>
+  </si>
+  <si>
+    <t>Прізвище, ім'я, по батькові студента</t>
+  </si>
+  <si>
+    <t>Бюджет/контракт</t>
+  </si>
+  <si>
+    <t>Відомість</t>
+  </si>
+  <si>
+    <t>рубіжної атестації</t>
+  </si>
+  <si>
+    <t>Назва дисциплін</t>
+  </si>
+  <si>
+    <t>Підпис викладача</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>група</t>
+  </si>
+  <si>
+    <t>ГГ-888</t>
+  </si>
+  <si>
+    <t>08.09</t>
+  </si>
+  <si>
+    <t>08.11</t>
+  </si>
+  <si>
+    <t>семестр</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Роки навчання</t>
+  </si>
+  <si>
+    <t>Дата:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">студ.                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відмінно:                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добре:                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задовільно:                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Незадовільно:          </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="200" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="201" formatCode="0.0"/>
+    <numFmt numFmtId="202" formatCode="0.0;[Red]0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="34">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="77">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="201" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
@@ -345,6 +1201,1843 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:T88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="3.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="str">
+        <f>CONCATENATE("студентів групи ",A302," за період навчання з ",A301," по ", B301, " ",A300,"-го семестру")</f>
+        <v>студентів групи ГГ-888 за період навчання з 08.09 по 08.11 4-го семестру</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="str">
+        <f>CONCATENATE(A303,"/",B303," навчального року")</f>
+        <v>2018/2019 навчального року</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:20" ht="225" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+    </row>
+    <row r="33" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+    </row>
+    <row r="34" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+    </row>
+    <row r="35" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+    </row>
+    <row r="36" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+    </row>
+    <row r="37" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+    </row>
+    <row r="38" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+    </row>
+    <row r="39" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+    </row>
+    <row r="40" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+    </row>
+    <row r="41" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+    </row>
+    <row r="42" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+    </row>
+    <row r="43" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+    </row>
+    <row r="44" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+    </row>
+    <row r="45" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+    </row>
+    <row r="46" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+    </row>
+    <row r="47" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+    </row>
+    <row r="48" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+    </row>
+    <row r="49" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+    </row>
+    <row r="50" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+    </row>
+    <row r="51" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+    </row>
+    <row r="52" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+    </row>
+    <row r="53" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+    </row>
+    <row r="54" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+    </row>
+    <row r="55" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+    </row>
+    <row r="56" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+    </row>
+    <row r="57" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+    </row>
+    <row r="58" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+    </row>
+    <row r="59" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+    </row>
+    <row r="60" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+    </row>
+    <row r="61" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+    </row>
+    <row r="62" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+    </row>
+    <row r="63" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+    </row>
+    <row r="64" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+    </row>
+    <row r="65" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+    </row>
+    <row r="66" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+    </row>
+    <row r="67" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+    </row>
+    <row r="68" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+    </row>
+    <row r="69" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+    </row>
+    <row r="70" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+    </row>
+    <row r="71" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+    </row>
+    <row r="72" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+    </row>
+    <row r="73" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+    </row>
+    <row r="74" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+    </row>
+    <row r="75" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+    </row>
+    <row r="76" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+    </row>
+    <row r="77" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+    </row>
+    <row r="78" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+    </row>
+    <row r="79" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+    </row>
+    <row r="80" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+    </row>
+    <row r="81" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+    </row>
+    <row r="82" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+    </row>
+    <row r="83" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+    </row>
+    <row r="84" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+    </row>
+    <row r="85" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+    </row>
+    <row r="86" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+    </row>
+    <row r="87" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+    </row>
+    <row r="88" spans="3:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.27559055118110237" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f>SUM(2,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>